--- a/biology/Zoologie/Eueides_isabella/Eueides_isabella.xlsx
+++ b/biology/Zoologie/Eueides_isabella/Eueides_isabella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eueides Isabella est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Eueides.
 </t>
@@ -511,19 +523,124 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eueides Isabella a été décrit par l'entomologiste hollandais Caspar Stoll en 1781[1].
-La localité type est le Suriname.
-Synonymes
-Papilio isabella Stoll [1781] protonyme[2]
-Noms vernaculaires
-Eueides isabella se nomme Isabella's Longwing en anglais[3].
-Sous-espèces
-Eueides isabella isabella au Suriname et en Guyane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Eueides Isabella a été décrit par l'entomologiste hollandais Caspar Stoll en 1781.
+La localité type est le Suriname.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio isabella Stoll  protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides isabella se nomme Isabella's Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eueides isabella isabella au Suriname et en Guyane.
 Eueides isabella arquata Stichel, 1903 ;  en Colombie.
 Eueides isabella cleobaea Geyer, 1832 ; à Cuba, Porto Rico et en Amérique centrale.
-Eueides isabella dianasa (Hübner, [1806])
+Eueides isabella dianasa (Hübner, )
 Eueides isabella dissoluta Stichel, 1903 ; au Pérou et en Équateur.
 Eueides isabella dynastes C. et R. Felder, 1861 ; au Venezuela et en Colombie.
 Eueides isabella ecuadorensis Strand, 1909 ; en Équateur.
@@ -532,110 +649,256 @@
 Eueides isabella huebneri Ménétriés, 1857 ; en Colombie.
 Eueides isabella melphis (Godart, 1819) à Haïti et aux Antilles.
 Eueides isabella nigricornis Maza, 1982 ; au Brésil.
-Eueides isabella ssp; au Brésil[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eueides_isabella</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Eueides isabella ssp; au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon d'une envergure de 6,5 cm à 9 cm, au dessus marron à noir orné de larges bandes orange à cuivré[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon d'une envergure de 6,5 cm à 9 cm, au dessus marron à noir orné de larges bandes orange à cuivré.
 			Eueides isabella
 			revers
-Chenille
-Elle est noire avec des marques jaunes, orange et blanches et des scolis blancs et noirs.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eueides_isabella</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est noire avec des marques jaunes, orange et blanches et des scolis blancs et noirs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago vole jusqu'à quatre semaines en captivité où il n'a pas de prédateurs naturels dans une serre.
-Période de vol et hivernation
-Il vole d'avril à juillet dans le nord de son aire, toute l'année dans sa zone de résidence tropicale[5]. Il est actif même par faible luminosité.
-Plantes hôtes
-Ses plantes hôtes sont des Passiflora ou passiflore, Passiflora platyloba et Passiflora ambigua[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Eueides_isabella</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole d'avril à juillet dans le nord de son aire, toute l'année dans sa zone de résidence tropicale. Il est actif même par faible luminosité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Passiflora ou passiflore, Passiflora platyloba et Passiflora ambigua.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le sud du Mexique, en Amérique centrale, aux Antilles et dans le bassin amazonien[2].
-Il est émigrant fréquent au Texas[5].
-Biotope
-Son habitat est la forêt tropicale où il se tient dans la canopée.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le sud du Mexique, en Amérique centrale, aux Antilles et dans le bassin amazonien.
+Il est émigrant fréquent au Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_isabella</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt tropicale où il se tient dans la canopée.
 Sur les autres projets Wikimedia :
 Eueides isabella, sur Wikimedia CommonsEueides isabella, sur Wikispecies
 </t>
